--- a/data/rrv_volatiles_pca_contribution_table_pca_dat_qsep.xlsx
+++ b/data/rrv_volatiles_pca_contribution_table_pca_dat_qsep.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,577 +382,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2-Hexen-1-ol, acetate, (E)-</t>
+          <t>Pinene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.02273818269178896</v>
+        <v>1.082806301636262</v>
       </c>
       <c r="C2">
-        <v>0.1298481576042286</v>
+        <v>0.309928118236781</v>
       </c>
       <c r="D2">
-        <v>0.09251987449109984</v>
+        <v>8.982689603835487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2-Hexenal</t>
+          <t>Pinene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.02173619956854921</v>
+        <v>1.463914856757442</v>
       </c>
       <c r="C3">
-        <v>0.03530545917878005</v>
+        <v>0.1621300406607832</v>
       </c>
       <c r="D3">
-        <v>0.1636720029362781</v>
+        <v>7.978062127416873</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2-Thujene</t>
+          <t>D-Limonene</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.000229996207192711</v>
+        <v>0.6409452930485829</v>
       </c>
       <c r="C4">
-        <v>0.01655810759535568</v>
+        <v>0.05256183922722609</v>
       </c>
       <c r="D4">
-        <v>0.01531396166007721</v>
+        <v>21.91252369341145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2,4,6-Octatriene, 2,6-dimethyl-, (E,Z)-</t>
+          <t>Copaene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.3313271155069391</v>
+        <v>0.00699346139272979</v>
       </c>
       <c r="C5">
-        <v>0.2081643146199495</v>
+        <v>0.02727086922375207</v>
       </c>
       <c r="D5">
-        <v>0.7126558580987989</v>
+        <v>0.001653205641868051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol Acetate (Z)-</t>
+          <t>Copaene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.8304335803400679</v>
+        <v>0.1869726962715356</v>
       </c>
       <c r="C6">
-        <v>5.563395819786834</v>
+        <v>0.01904568920934344</v>
       </c>
       <c r="D6">
-        <v>4.479902594536291</v>
+        <v>0.1814549130819908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol, (Z)-</t>
+          <t>Caryophyllene</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.07660633870668329</v>
+        <v>8.580889610876042</v>
       </c>
       <c r="C7">
-        <v>0.2290728166192003</v>
+        <v>0.9124077349620591</v>
       </c>
       <c r="D7">
-        <v>0.5625993867271285</v>
+        <v>20.77783760792799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5-Hepten-2-one, &lt;6-methyl-&gt;</t>
+          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
         </is>
       </c>
       <c r="B8">
-        <v>2.622521004738118e-006</v>
+        <v>0.2719452063812425</v>
       </c>
       <c r="C8">
-        <v>1.248690923797736e-005</v>
+        <v>0.02876811991634727</v>
       </c>
       <c r="D8">
-        <v>0.00718407903644868</v>
+        <v>0.2075163474079584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acetic acid, hexyl ester</t>
+          <t>Muurrolene &lt;gamma-&gt;</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.0005037270180345589</v>
+        <v>78.91995199388528</v>
       </c>
       <c r="C9">
-        <v>0.003092089477026637</v>
+        <v>7.783122389594078</v>
       </c>
       <c r="D9">
-        <v>0.002686172109028715</v>
+        <v>6.690394068613423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aromadendrene</t>
+          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.0002091254291213818</v>
+        <v>8.818888626534443</v>
       </c>
       <c r="C10">
-        <v>0.002214063939453919</v>
+        <v>90.68412694827065</v>
       </c>
       <c r="D10">
-        <v>3.737944216144323e-006</v>
+        <v>0.002040424456507538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Benzaldehyde &lt;para-ethyl-&gt;</t>
+          <t>Farnesene &lt;(E)-, beta-&gt;</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.007189838847444287</v>
+        <v>0.0266919532164486</v>
       </c>
       <c r="C11">
-        <v>0.198351876373923</v>
+        <v>0.02063825069897303</v>
       </c>
       <c r="D11">
-        <v>0.1338721776958012</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Cadina-1,4-diene &lt;trans-&gt;</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>0.0005467246210348579</v>
-      </c>
-      <c r="C12">
-        <v>3.955953591931493e-005</v>
-      </c>
-      <c r="D12">
-        <v>0.003722692456747173</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cadinene &lt;delta-&gt;</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>0.04321653030692865</v>
-      </c>
-      <c r="C13">
-        <v>0.04508293929397524</v>
-      </c>
-      <c r="D13">
-        <v>0.3523450858263933</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Calamenene</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>0.0004713693602389513</v>
-      </c>
-      <c r="C14">
-        <v>0.0387465003248884</v>
-      </c>
-      <c r="D14">
-        <v>0.03610807768403299</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Camphor</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>0.02368084167070704</v>
-      </c>
-      <c r="C15">
-        <v>0.5104346825601445</v>
-      </c>
-      <c r="D15">
-        <v>0.2188024092294821</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Caryophyllene</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>6.411678104032645</v>
-      </c>
-      <c r="C16">
-        <v>2.387453851549563</v>
-      </c>
-      <c r="D16">
-        <v>4.071417046439901</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>0.2105783168531148</v>
-      </c>
-      <c r="C17">
-        <v>0.005633442145600486</v>
-      </c>
-      <c r="D17">
-        <v>0.01708175796322368</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Copaene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>0.006039043431817117</v>
-      </c>
-      <c r="C18">
-        <v>0.02452188473528017</v>
-      </c>
-      <c r="D18">
-        <v>0.002528210988047376</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Copaene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>0.146643852621735</v>
-      </c>
-      <c r="C19">
-        <v>0.002844912759035756</v>
-      </c>
-      <c r="D19">
-        <v>0.001173796436865509</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>D-Limonene</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>0.5276377595077666</v>
-      </c>
-      <c r="C20">
-        <v>0.00259880487224147</v>
-      </c>
-      <c r="D20">
-        <v>0.8757500144985837</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Elemene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>0.005669951027329804</v>
-      </c>
-      <c r="C21">
-        <v>0.4016218868924139</v>
-      </c>
-      <c r="D21">
-        <v>0.9946676064090227</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E)-, beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>0.01547699931099546</v>
-      </c>
-      <c r="C22">
-        <v>0.09950425901507373</v>
-      </c>
-      <c r="D22">
-        <v>0.6602571449316727</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>7.572287681677239</v>
-      </c>
-      <c r="C23">
-        <v>27.90103597722072</v>
-      </c>
-      <c r="D23">
-        <v>0.07095561838824076</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Germacrene D</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>0.3214702070747021</v>
-      </c>
-      <c r="C24">
-        <v>0.01081327334681105</v>
-      </c>
-      <c r="D24">
-        <v>0.09682077911309941</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Humulene</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>0.03333871231780968</v>
-      </c>
-      <c r="C25">
-        <v>0.00733105147819038</v>
-      </c>
-      <c r="D25">
-        <v>0.006323040294766654</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Methyl Salicylate</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>1.24487994543654</v>
-      </c>
-      <c r="C26">
-        <v>18.79611471083592</v>
-      </c>
-      <c r="D26">
-        <v>30.51906949055942</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Muurrolene &lt;gamma-&gt;</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>60.02231933793738</v>
-      </c>
-      <c r="C27">
-        <v>20.98957494063124</v>
-      </c>
-      <c r="D27">
-        <v>4.173313161374149</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Myrcene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>0.02188592692908435</v>
-      </c>
-      <c r="C28">
-        <v>0.03426346806445872</v>
-      </c>
-      <c r="D28">
-        <v>0.09925215204554347</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Nerolidol</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>0.005815138355552884</v>
-      </c>
-      <c r="C29">
-        <v>0.1084032593278104</v>
-      </c>
-      <c r="D29">
-        <v>0.03506429481364282</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Nona-1,3,7-triene &lt;4-8-dimethyl-, (E)-&gt;</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>0.251506932488315</v>
-      </c>
-      <c r="C30">
-        <v>4.833906069488749</v>
-      </c>
-      <c r="D30">
-        <v>5.52670177675668</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>18.82352933044095</v>
-      </c>
-      <c r="C31">
-        <v>13.84189840729377</v>
-      </c>
-      <c r="D31">
-        <v>40.35662047028988</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;trans-beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>1.021093492350825</v>
-      </c>
-      <c r="C32">
-        <v>1.113768924932666</v>
-      </c>
-      <c r="D32">
-        <v>2.482990002687082</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Pentane, 3-ethyl-2,2-dimethyl-</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>0.01374344930135789</v>
-      </c>
-      <c r="C33">
-        <v>0.05147367736592783</v>
-      </c>
-      <c r="D33">
-        <v>0.11504231554507</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Pinene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>0.8378402665535349</v>
-      </c>
-      <c r="C34">
-        <v>0.2783614659546156</v>
-      </c>
-      <c r="D34">
-        <v>0.02453835028506163</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Pinene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>1.135689804428017</v>
-      </c>
-      <c r="C35">
-        <v>0.2611553837650481</v>
-      </c>
-      <c r="D35">
-        <v>0.02982638867976225</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Trivertal</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>4.209325145152941e-005</v>
-      </c>
-      <c r="C36">
-        <v>7.920975246779412e-005</v>
-      </c>
-      <c r="D36">
-        <v>0.005622855525059725</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>0.0119414618761057</v>
-      </c>
-      <c r="C37">
-        <v>1.867322264753483</v>
-      </c>
-      <c r="D37">
-        <v>3.053595615543395</v>
+        <v>33.26582800820646</v>
       </c>
     </row>
   </sheetData>
